--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/OKLAHOMA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/OKLAHOMA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1092"/>
+  <dimension ref="A1:D1086"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C36">
@@ -870,7 +870,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C38">
@@ -1078,7 +1078,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C54">
@@ -1130,7 +1130,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C58">
@@ -1525,7 +1525,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C88">
@@ -1655,7 +1655,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C98">
@@ -1681,7 +1681,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C100">
@@ -1954,7 +1954,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C121">
@@ -1967,7 +1967,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C122">
@@ -1980,7 +1980,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C123">
@@ -2071,7 +2071,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C130">
@@ -2349,7 +2349,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C151">
@@ -2523,7 +2523,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C164">
@@ -2549,7 +2549,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2606,7 +2606,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C170">
@@ -2793,7 +2793,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C184">
@@ -2975,7 +2975,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C198">
@@ -3014,7 +3014,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C201">
@@ -3105,7 +3105,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C208">
@@ -3118,7 +3118,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C209">
@@ -3131,7 +3131,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C210">
@@ -3144,7 +3144,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C211">
@@ -3274,12 +3274,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C221">
@@ -3344,7 +3344,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C226">
@@ -3422,7 +3422,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C232">
@@ -3487,7 +3487,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C237">
@@ -3526,7 +3526,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C240">
@@ -3630,7 +3630,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C248">
@@ -3708,7 +3708,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C254">
@@ -3721,7 +3721,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C255">
@@ -3747,7 +3747,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C257">
@@ -3825,7 +3825,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C263">
@@ -3864,7 +3864,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C266">
@@ -3929,7 +3929,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C271">
@@ -3942,7 +3942,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C272">
@@ -3955,7 +3955,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C273">
@@ -3968,7 +3968,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C274">
@@ -4077,7 +4077,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C282">
@@ -4090,7 +4090,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C283">
@@ -4103,7 +4103,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C284">
@@ -4207,7 +4207,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C292">
@@ -4259,7 +4259,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C296">
@@ -4363,7 +4363,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C304">
@@ -4402,7 +4402,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C307">
@@ -4428,7 +4428,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C309">
@@ -4454,7 +4454,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C311">
@@ -4467,7 +4467,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C312">
@@ -4480,7 +4480,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C313">
@@ -4545,7 +4545,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C318">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C324">
@@ -4654,7 +4654,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C326">
@@ -4667,7 +4667,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C327">
@@ -4732,7 +4732,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C332">
@@ -4745,7 +4745,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C333">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C336">
@@ -4797,7 +4797,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C337">
@@ -4810,7 +4810,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C338">
@@ -4849,7 +4849,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C341">
@@ -4862,7 +4862,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C342">
@@ -4901,7 +4901,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C345">
@@ -4914,7 +4914,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C346">
@@ -4979,7 +4979,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C351">
@@ -4992,7 +4992,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C352">
@@ -5005,7 +5005,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C353">
@@ -5031,7 +5031,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C355">
@@ -5070,7 +5070,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C358">
@@ -5187,7 +5187,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C367">
@@ -5213,7 +5213,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C369">
@@ -5239,7 +5239,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C371">
@@ -5265,7 +5265,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C373">
@@ -5278,7 +5278,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C374">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C387">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C391">
@@ -5530,7 +5530,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C393">
@@ -5569,7 +5569,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C396">
@@ -5621,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C400">
@@ -5634,7 +5634,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C401">
@@ -5660,7 +5660,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C403">
@@ -5673,7 +5673,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C404">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C406">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C409">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C410">
@@ -5790,7 +5790,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C413">
@@ -5816,7 +5816,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C415">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C416">
@@ -5855,7 +5855,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C418">
@@ -5907,7 +5907,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C422">
@@ -5920,7 +5920,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C423">
@@ -5946,7 +5946,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C425">
@@ -6055,7 +6055,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C433">
@@ -6068,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C434">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C435">
@@ -6146,7 +6146,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C440">
@@ -6211,7 +6211,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C445">
@@ -6289,7 +6289,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C451">
@@ -6341,7 +6341,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C455">
@@ -6419,7 +6419,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C461">
@@ -6471,7 +6471,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C465">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C469">
@@ -6549,7 +6549,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C471">
@@ -6562,7 +6562,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C472">
@@ -6588,7 +6588,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C474">
@@ -6614,7 +6614,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C476">
@@ -6640,7 +6640,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C478">
@@ -6679,7 +6679,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C481">
@@ -6809,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C491">
@@ -6822,7 +6822,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C492">
@@ -6835,7 +6835,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C493">
@@ -6887,7 +6887,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C497">
@@ -6900,7 +6900,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C498">
@@ -6939,7 +6939,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C501">
@@ -6952,7 +6952,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C502">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C520">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C562">
@@ -8002,7 +8002,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C582">
@@ -8093,7 +8093,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C589">
@@ -8132,7 +8132,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C592">
@@ -8197,7 +8197,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C597">
@@ -8384,7 +8384,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C611">
@@ -8532,7 +8532,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C622">
@@ -8558,7 +8558,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C624">
@@ -8623,7 +8623,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C629">
@@ -8693,7 +8693,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C634">
@@ -8758,7 +8758,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C639">
@@ -8771,7 +8771,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C640">
@@ -8784,7 +8784,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C641">
@@ -8797,7 +8797,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C642">
@@ -8810,7 +8810,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C643">
@@ -8862,7 +8862,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C647">
@@ -8888,7 +8888,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C649">
@@ -8901,7 +8901,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C650">
@@ -8914,7 +8914,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C651">
@@ -8927,7 +8927,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C652">
@@ -8992,7 +8992,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C657">
@@ -9044,7 +9044,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C661">
@@ -9213,7 +9213,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C674">
@@ -9395,7 +9395,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C688">
@@ -9655,7 +9655,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C708">
@@ -9746,7 +9746,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C715">
@@ -9759,7 +9759,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C716">
@@ -9772,7 +9772,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C717">
@@ -9798,7 +9798,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C719">
@@ -9811,7 +9811,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C720">
@@ -10011,7 +10011,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C735">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C741">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C743">
@@ -10336,7 +10336,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C760">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C767">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C768">
@@ -10544,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C776">
@@ -10666,7 +10666,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C785">
@@ -10692,7 +10692,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C787">
@@ -10731,7 +10731,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C790">
@@ -10744,7 +10744,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C791">
@@ -10757,7 +10757,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C792">
@@ -10783,7 +10783,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C794">
@@ -10923,7 +10923,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C804">
@@ -10988,7 +10988,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C809">
@@ -11014,7 +11014,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C811">
@@ -11131,7 +11131,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C820">
@@ -11196,7 +11196,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C825">
@@ -11274,7 +11274,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C831">
@@ -11300,7 +11300,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C833">
@@ -11391,7 +11391,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C840">
@@ -11404,7 +11404,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C841">
@@ -11417,7 +11417,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C842">
@@ -11430,7 +11430,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C843">
@@ -11443,7 +11443,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C844">
@@ -12373,7 +12373,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C914">
@@ -12508,7 +12508,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C924">
@@ -12521,7 +12521,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C925">
@@ -12534,7 +12534,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C926">
@@ -12547,7 +12547,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C927">
@@ -12669,7 +12669,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C936">
@@ -12760,7 +12760,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C943">
@@ -12786,7 +12786,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C945">
@@ -12799,7 +12799,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C946">
@@ -12929,7 +12929,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C956">
@@ -13085,7 +13085,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C968">
@@ -13098,7 +13098,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C969">
@@ -13124,7 +13124,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C971">
@@ -13202,7 +13202,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C977">
@@ -13241,7 +13241,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C980">
@@ -13267,7 +13267,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C982">
@@ -13384,7 +13384,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C991">
@@ -13462,7 +13462,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C997">
@@ -13540,7 +13540,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1003">
@@ -13553,7 +13553,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1004">
@@ -13579,7 +13579,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1006">
@@ -13774,7 +13774,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1021">
@@ -13839,7 +13839,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1026">
@@ -13917,7 +13917,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1032">
@@ -14070,7 +14070,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1043">
@@ -14096,7 +14096,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1045">
@@ -14369,7 +14369,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1066">
@@ -14512,7 +14512,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1077">
@@ -14551,7 +14551,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1080">
@@ -14637,41 +14637,6 @@
       </c>
       <c r="D1086">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1089">
-      <c r="A1089" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1090">
-      <c r="A1090" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1091">
-      <c r="A1091" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1092">
-      <c r="A1092" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
